--- a/Data/Processing/2024-02-02/NAUKRI.xlsx
+++ b/Data/Processing/2024-02-02/NAUKRI.xlsx
@@ -1922,7 +1922,7 @@
         <v>3294.75</v>
       </c>
       <c r="E28">
-        <v>3362.08</v>
+        <v>3362.07</v>
       </c>
       <c r="F28">
         <v>3411.57</v>
@@ -1975,7 +1975,7 @@
         <v>3367.7</v>
       </c>
       <c r="F29">
-        <v>3362.08</v>
+        <v>3362.07</v>
       </c>
       <c r="G29">
         <v>222511</v>
@@ -1993,7 +1993,7 @@
         <v>-1.74</v>
       </c>
       <c r="L29">
-        <v>24.1</v>
+        <v>24.11</v>
       </c>
       <c r="M29">
         <v>1.19</v>
@@ -2802,7 +2802,7 @@
         <v>1.13</v>
       </c>
       <c r="O45">
-        <v>3552.442727272728</v>
+        <v>3552.4425</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2816,13 +2816,13 @@
         <v>3744.71</v>
       </c>
       <c r="C46">
-        <v>3864.23</v>
+        <v>3864.22</v>
       </c>
       <c r="D46">
         <v>3734.75</v>
       </c>
       <c r="E46">
-        <v>3844.61</v>
+        <v>3844.6</v>
       </c>
       <c r="F46">
         <v>3741.28</v>
@@ -2852,7 +2852,7 @@
         <v>3.46</v>
       </c>
       <c r="O46">
-        <v>3557.043409090909</v>
+        <v>3557.042954545455</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>3804.92</v>
       </c>
       <c r="F47">
-        <v>3844.61</v>
+        <v>3844.6</v>
       </c>
       <c r="G47">
         <v>217138</v>
@@ -2893,7 +2893,7 @@
         <v>-1.32</v>
       </c>
       <c r="L47">
-        <v>-14.25</v>
+        <v>-14.24</v>
       </c>
       <c r="M47">
         <v>0.65</v>
@@ -2902,7 +2902,7 @@
         <v>1.68</v>
       </c>
       <c r="O47">
-        <v>3560.548409090909</v>
+        <v>3560.547954545454</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>4.61</v>
       </c>
       <c r="O48">
-        <v>3560.267727272727</v>
+        <v>3560.267272727272</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1.66</v>
       </c>
       <c r="O49">
-        <v>3558.391363636364</v>
+        <v>3558.390909090909</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>2.55</v>
       </c>
       <c r="O50">
-        <v>3553.622272727273</v>
+        <v>3553.621818181818</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>1.59</v>
       </c>
       <c r="O51">
-        <v>3548.934772727272</v>
+        <v>3548.934318181818</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>1.17</v>
       </c>
       <c r="O52">
-        <v>3552.637727272727</v>
+        <v>3552.637272727273</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>2.33</v>
       </c>
       <c r="O53">
-        <v>3556.092954545455</v>
+        <v>3556.0925</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>1.25</v>
       </c>
       <c r="O54">
-        <v>3558.155</v>
+        <v>3558.154545454546</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>1.47</v>
       </c>
       <c r="O55">
-        <v>3559.588863636364</v>
+        <v>3559.588409090909</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>2.16</v>
       </c>
       <c r="O56">
-        <v>3564.123636363636</v>
+        <v>3564.123181818182</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>1.99</v>
       </c>
       <c r="O57">
-        <v>3570.144545454545</v>
+        <v>3570.144090909091</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>1.98</v>
       </c>
       <c r="O58">
-        <v>3575.342499999999</v>
+        <v>3575.342045454545</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0.99</v>
       </c>
       <c r="O59">
-        <v>3581.891818181818</v>
+        <v>3581.891363636364</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3552,7 +3552,7 @@
         <v>2.16</v>
       </c>
       <c r="O60">
-        <v>3588.658636363636</v>
+        <v>3588.658181818182</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>1.44</v>
       </c>
       <c r="O61">
-        <v>3594.558409090909</v>
+        <v>3594.557954545454</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>3.7</v>
       </c>
       <c r="O62">
-        <v>3603</v>
+        <v>3602.999545454546</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>1.84</v>
       </c>
       <c r="O63">
-        <v>3612.384545454546</v>
+        <v>3612.384090909091</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>1.78</v>
       </c>
       <c r="O64">
-        <v>3621.648863636363</v>
+        <v>3621.648409090909</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>1.72</v>
       </c>
       <c r="O65">
-        <v>3630.337272727273</v>
+        <v>3630.336818181818</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>2.13</v>
       </c>
       <c r="O66">
-        <v>3638.6475</v>
+        <v>3638.647045454546</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>3.49</v>
       </c>
       <c r="O67">
-        <v>3648.223181818182</v>
+        <v>3648.222727272727</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>1.5</v>
       </c>
       <c r="O68">
-        <v>3657.994772727272</v>
+        <v>3657.994318181818</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>4.43</v>
       </c>
       <c r="O69">
-        <v>3665.339772727273</v>
+        <v>3665.339318181818</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>4.33</v>
       </c>
       <c r="O70">
-        <v>3671.819090909091</v>
+        <v>3671.818636363637</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>3.31</v>
       </c>
       <c r="O71">
-        <v>3680.953409090909</v>
+        <v>3680.952954545454</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>2.33</v>
       </c>
       <c r="O72">
-        <v>3692.565000000001</v>
+        <v>3692.564772727272</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>2.26</v>
       </c>
       <c r="O73">
-        <v>3705.517954545455</v>
+        <v>3705.517727272727</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>2.35</v>
       </c>
       <c r="O74">
-        <v>3715.754545454545</v>
+        <v>3715.754318181818</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>2.51</v>
       </c>
       <c r="O75">
-        <v>3725.0325</v>
+        <v>3725.032272727272</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>13.14</v>
       </c>
       <c r="O76">
-        <v>3742.059545454546</v>
+        <v>3742.059318181818</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>4.67</v>
       </c>
       <c r="O77">
-        <v>3758.980454545455</v>
+        <v>3758.980227272727</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>3.92</v>
       </c>
       <c r="O78">
-        <v>3771.511136363637</v>
+        <v>3771.510909090909</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>3.25</v>
       </c>
       <c r="O79">
-        <v>3784.090454545454</v>
+        <v>3784.090227272727</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>4.56</v>
       </c>
       <c r="O80">
-        <v>3800.909318181818</v>
+        <v>3800.909090909091</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>4.9</v>
       </c>
       <c r="O81">
-        <v>3816.771818181818</v>
+        <v>3816.771590909091</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>4.17</v>
       </c>
       <c r="O82">
-        <v>3829.525454545455</v>
+        <v>3829.525227272727</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>2.81</v>
       </c>
       <c r="O83">
-        <v>3841.164318181819</v>
+        <v>3841.164090909091</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1.69</v>
       </c>
       <c r="O84">
-        <v>3851.594545454545</v>
+        <v>3851.594318181819</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>2.06</v>
       </c>
       <c r="O85">
-        <v>3861.217954545455</v>
+        <v>3861.217727272728</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>3.44</v>
       </c>
       <c r="O86">
-        <v>3870.296818181818</v>
+        <v>3870.296590909091</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>3.07</v>
       </c>
       <c r="O87">
-        <v>3882.181363636364</v>
+        <v>3882.181136363637</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>2.11</v>
       </c>
       <c r="O88">
-        <v>3895.756818181818</v>
+        <v>3895.756590909091</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>1.7</v>
       </c>
       <c r="O89">
-        <v>3908.279545454545</v>
+        <v>3908.279318181818</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>2.62</v>
       </c>
       <c r="O91">
-        <v>3932.21909090909</v>
+        <v>3932.219090909091</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>1.79</v>
       </c>
       <c r="O92">
-        <v>3949.817727272727</v>
+        <v>3949.817727272728</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>1.34</v>
       </c>
       <c r="O93">
-        <v>3966.819772727273</v>
+        <v>3966.819772727272</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>1.76</v>
       </c>
       <c r="O100">
-        <v>4086.939318181819</v>
+        <v>4086.939318181818</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>4.04</v>
       </c>
       <c r="O109">
-        <v>4210.151136363636</v>
+        <v>4210.151136363637</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>2.41</v>
       </c>
       <c r="O111">
-        <v>4246.282272727272</v>
+        <v>4246.282272727273</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>0.85</v>
       </c>
       <c r="O113">
-        <v>4282.496818181818</v>
+        <v>4282.496818181819</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1.79</v>
       </c>
       <c r="O114">
-        <v>4303.085454545455</v>
+        <v>4303.085454545454</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>1.7</v>
       </c>
       <c r="O120">
-        <v>4390.943636363636</v>
+        <v>4390.943636363637</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -6602,7 +6602,7 @@
         <v>1.61</v>
       </c>
       <c r="O121">
-        <v>4399.749545454545</v>
+        <v>4399.749545454546</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>3.6</v>
       </c>
       <c r="O126">
-        <v>4462.290227272727</v>
+        <v>4462.290227272728</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>2.26</v>
       </c>
       <c r="O129">
-        <v>4499.887272727273</v>
+        <v>4499.887272727272</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>1.26</v>
       </c>
       <c r="O135">
-        <v>4500.346136363637</v>
+        <v>4500.346136363636</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>1.16</v>
       </c>
       <c r="O137">
-        <v>4487.797045454545</v>
+        <v>4487.797045454546</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>2.26</v>
       </c>
       <c r="O141">
-        <v>4472.779545454546</v>
+        <v>4472.779545454545</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>2.99</v>
       </c>
       <c r="O142">
-        <v>4472.47340909091</v>
+        <v>4472.473409090909</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -7702,7 +7702,7 @@
         <v>2.09</v>
       </c>
       <c r="O143">
-        <v>4471.302045454546</v>
+        <v>4471.302045454545</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>2.71</v>
       </c>
       <c r="O145">
-        <v>4468.307045454546</v>
+        <v>4468.307045454545</v>
       </c>
       <c r="P145">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>1.33</v>
       </c>
       <c r="O149">
-        <v>4472.561363636363</v>
+        <v>4472.561363636364</v>
       </c>
       <c r="P149">
         <v>1</v>
@@ -8052,7 +8052,7 @@
         <v>2.63</v>
       </c>
       <c r="O150">
-        <v>4476.782727272727</v>
+        <v>4476.782727272726</v>
       </c>
       <c r="P150">
         <v>1</v>
@@ -8602,7 +8602,7 @@
         <v>1.13</v>
       </c>
       <c r="O161">
-        <v>4421.584772727272</v>
+        <v>4421.584772727273</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>4.17</v>
       </c>
       <c r="O166">
-        <v>4371.901590909091</v>
+        <v>4371.90159090909</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>1.35</v>
       </c>
       <c r="O169">
-        <v>4341.6175</v>
+        <v>4341.617499999999</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>1.13</v>
       </c>
       <c r="O173">
-        <v>4293.697954545454</v>
+        <v>4293.697954545455</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1.94</v>
       </c>
       <c r="O179">
-        <v>4273.357727272727</v>
+        <v>4273.357727272728</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>1.67</v>
       </c>
       <c r="O184">
-        <v>4260.394090909092</v>
+        <v>4260.394090909091</v>
       </c>
       <c r="P184">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>1.77</v>
       </c>
       <c r="O185">
-        <v>4257.622499999999</v>
+        <v>4257.6225</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>3.26</v>
       </c>
       <c r="O190">
-        <v>4257.349090909092</v>
+        <v>4257.349090909091</v>
       </c>
       <c r="P190">
         <v>0</v>
@@ -10152,7 +10152,7 @@
         <v>1.2</v>
       </c>
       <c r="O192">
-        <v>4259.171363636364</v>
+        <v>4259.171363636363</v>
       </c>
       <c r="P192">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>5.05</v>
       </c>
       <c r="O193">
-        <v>4265.200681818183</v>
+        <v>4265.200681818182</v>
       </c>
       <c r="P193">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>1.64</v>
       </c>
       <c r="O197">
-        <v>4293.508863636363</v>
+        <v>4293.508863636364</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -10702,7 +10702,7 @@
         <v>2.37</v>
       </c>
       <c r="O203">
-        <v>4322.562045454545</v>
+        <v>4322.562045454546</v>
       </c>
       <c r="P203">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>3.32</v>
       </c>
       <c r="O209">
-        <v>4395.987272727272</v>
+        <v>4395.987272727273</v>
       </c>
       <c r="P209">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>4.67</v>
       </c>
       <c r="O210">
-        <v>4411.50409090909</v>
+        <v>4411.504090909091</v>
       </c>
       <c r="P210">
         <v>0</v>
@@ -11252,7 +11252,7 @@
         <v>2.62</v>
       </c>
       <c r="O214">
-        <v>4481.608863636364</v>
+        <v>4481.608863636363</v>
       </c>
       <c r="P214">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>2.58</v>
       </c>
       <c r="O215">
-        <v>4503.521590909091</v>
+        <v>4503.52159090909</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -11502,7 +11502,7 @@
         <v>2.4</v>
       </c>
       <c r="O219">
-        <v>4586.616136363636</v>
+        <v>4586.616136363637</v>
       </c>
       <c r="P219">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>1.45</v>
       </c>
       <c r="O223">
-        <v>4678.021590909091</v>
+        <v>4678.02159090909</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -11959,7 +11959,7 @@
         <v>1.65</v>
       </c>
       <c r="O227">
-        <v>4773.2575</v>
+        <v>4773.257500000001</v>
       </c>
       <c r="P227">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>4.03</v>
       </c>
       <c r="O228">
-        <v>4799.578181818181</v>
+        <v>4799.578181818182</v>
       </c>
       <c r="P228">
         <v>0</v>
@@ -12173,7 +12173,7 @@
         <v>3.33</v>
       </c>
       <c r="O229">
-        <v>4822.637272727273</v>
+        <v>4822.637272727272</v>
       </c>
       <c r="P229">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>2.8</v>
       </c>
       <c r="O235">
-        <v>4937.217045454546</v>
+        <v>4937.217045454545</v>
       </c>
       <c r="P235">
         <v>0</v>
@@ -12922,7 +12922,7 @@
         <v>2.12</v>
       </c>
       <c r="O236">
-        <v>4952.465454545454</v>
+        <v>4952.465454545455</v>
       </c>
       <c r="P236">
         <v>0</v>
@@ -13029,7 +13029,7 @@
         <v>3.91</v>
       </c>
       <c r="O237">
-        <v>4960.993181818181</v>
+        <v>4960.993181818182</v>
       </c>
       <c r="P237">
         <v>0</v>
@@ -13293,7 +13293,7 @@
         <v>3.68</v>
       </c>
       <c r="O240">
-        <v>4979.660227272727</v>
+        <v>4979.660227272728</v>
       </c>
       <c r="P240">
         <v>1</v>
@@ -13400,7 +13400,7 @@
         <v>3.46</v>
       </c>
       <c r="O241">
-        <v>4986.089772727273</v>
+        <v>4986.089772727272</v>
       </c>
       <c r="P241">
         <v>1</v>
@@ -13507,7 +13507,7 @@
         <v>2.78</v>
       </c>
       <c r="O242">
-        <v>4991.569318181818</v>
+        <v>4991.569318181819</v>
       </c>
       <c r="P242">
         <v>1</v>
@@ -13721,7 +13721,7 @@
         <v>3.04</v>
       </c>
       <c r="O244">
-        <v>5006.430681818182</v>
+        <v>5006.430681818181</v>
       </c>
       <c r="P244">
         <v>1</v>
